--- a/medicine/Handicap/Anomalies_de_développement_du_cortex_cérébral/Anomalies_de_développement_du_cortex_cérébral.xlsx
+++ b/medicine/Handicap/Anomalies_de_développement_du_cortex_cérébral/Anomalies_de_développement_du_cortex_cérébral.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anomalies_de_d%C3%A9veloppement_du_cortex_c%C3%A9r%C3%A9bral</t>
+          <t>Anomalies_de_développement_du_cortex_cérébral</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les moyens de détection des anomalies concernant le développement du cortex cérébral ont fait d'énormes progrès depuis l'apparition de l'imagerie médicale du cerveau. Plusieurs études révèlent que près de 25 % des enfants atteints d'épilepsies réfractaires sont en rapport avec des  anomalies de développement du cortex cérébral.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anomalies_de_d%C3%A9veloppement_du_cortex_c%C3%A9r%C3%A9bral</t>
+          <t>Anomalies_de_développement_du_cortex_cérébral</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Embryologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À la différence de beaucoup d'autres cellules au cours de l'embryogenèse, les cellules du cortex cérébral ne se différencient pas au niveau du cortex cérébral mais à distance, elles devront donc migrer vers le cortex cérébral.
 Les deux endroits de formation des neurones sont les parois du troisième ventricule et des ventricules latéraux (système ventriculaire).
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Anomalies_de_d%C3%A9veloppement_du_cortex_c%C3%A9r%C3%A9bral</t>
+          <t>Anomalies_de_développement_du_cortex_cérébral</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Classifications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>En fonction de l'embryologie, on peut classer schématiquement les anomalies de développement du cortex cérébral en trois catégories :
 malformations en rapport avec une anomalie de la prolifération des neurones et des cellules gliales ;
